--- a/other/Project_TimeLine_2021_22_Apr.xlsx
+++ b/other/Project_TimeLine_2021_22_Apr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\aztech-lms\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F58695-2371-436F-8CB6-FA769C991F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DAFEF7-FF82-491A-80BB-8A67E40EBB0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5A8E5395-CCD6-4F57-83A8-81B53FE4AFF6}"/>
   </bookViews>
@@ -166,7 +166,8 @@
     <t>Front-end: Threejs scene - MQTT client</t>
   </si>
   <si>
-    <t>will default to listening for the "ON" event for now)</t>
+    <t>reordered to complete
+group features first</t>
   </si>
 </sst>
 </file>
@@ -550,7 +551,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,27 +1109,30 @@
       <c r="F23" s="3">
         <v>44308</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>44309</v>
       </c>
       <c r="F24" s="3">
-        <v>44312</v>
-      </c>
-      <c r="I24" t="s">
+        <v>44313</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1137,16 +1141,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="F25" s="3">
         <v>44315</v>
@@ -1175,6 +1179,10 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
